--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/ctrl-settings/gra/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9232547-EBAA-2C4B-B719-C8FDEAFC94A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
+    <workbookView xWindow="2080" yWindow="2680" windowWidth="25660" windowHeight="13520" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
     <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,26 +44,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -272,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,6 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,22 +707,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.86328125" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="15">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,72 +733,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -809,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -817,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -825,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -833,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -841,114 +838,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -960,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -968,12 +965,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -981,7 +978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -990,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1028,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1036,12 +1033,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1096,7 +1093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1106,33 +1103,33 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1139,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1352,12 +1349,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1552,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1620,12 +1617,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1680,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1688,12 +1685,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1710,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1718,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1734,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1748,7 +1745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1756,12 +1753,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1778,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1816,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1824,12 +1821,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1837,7 +1834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1854,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1862,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1884,7 +1881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1892,12 +1889,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1922,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1938,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1952,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1960,12 +1957,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1998,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2006,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2020,7 +2017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2028,12 +2025,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2074,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/ctrl-settings/gra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ctrl-settings/gra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9232547-EBAA-2C4B-B719-C8FDEAFC94A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE535FE-2280-DF4E-AC32-9EA66AB8F26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="2680" windowWidth="25660" windowHeight="13520" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ctrl-settings/gra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE535FE-2280-DF4E-AC32-9EA66AB8F26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2680" windowWidth="25660" windowHeight="13520" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
     <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,17 +42,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C15" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -265,7 +272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -378,7 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,25 +713,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="80.83203125" customWidth="1"/>
+    <col min="2" max="2" width="80.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,72 +736,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -806,7 +809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -814,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -822,7 +825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -830,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -838,114 +841,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -957,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -965,12 +968,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -978,7 +981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -987,7 +990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1025,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1033,12 +1036,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1063,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1093,43 +1096,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1139,7 +1142,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1187,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1349,12 +1352,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1409,11 +1412,11 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
@@ -1421,10 +1424,10 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1524,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1607,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1617,12 +1620,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1677,7 +1680,77 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B9:F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1685,45 +1758,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B9:F9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B10:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1731,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1744,8 +1817,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1753,29 +1826,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B10:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B11:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1783,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1791,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1799,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1812,8 +1885,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1821,29 +1894,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B11:F11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B12:F12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1851,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1859,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1867,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1880,8 +1953,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1889,29 +1962,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B12:F12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B13:F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1919,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1927,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1935,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1948,8 +2021,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1957,29 +2030,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B13:F13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B14:F14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1987,7 +2060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1995,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2003,75 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B14:F14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/ctrl-settings/gra/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE535FE-2280-DF4E-AC32-9EA66AB8F26C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
+    <workbookView xWindow="2080" yWindow="2680" windowWidth="25660" windowHeight="13520" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
     <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,26 +44,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -272,7 +265,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,6 +378,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,22 +707,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.86328125" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="15">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,72 +733,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -809,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -817,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -825,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -833,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -841,114 +838,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -960,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -968,12 +965,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -981,7 +978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -990,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -998,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1028,7 +1025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1036,12 +1033,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1096,43 +1093,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1139,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1190,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1352,12 +1349,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1412,11 +1409,11 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="10">
         <f t="shared" si="1"/>
@@ -1424,10 +1421,10 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1552,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1620,12 +1617,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1630,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1680,77 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B9:F9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1758,45 +1685,45 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B10:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B9:F9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1817,8 +1744,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1826,29 +1753,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B11:F11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B10:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1856,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1864,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1872,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1885,8 +1812,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1894,29 +1821,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B12:F12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B11:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1953,8 +1880,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1962,29 +1889,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B13:F13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B12:F12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1992,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2000,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2008,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2021,8 +1948,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -2030,29 +1957,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B14:F14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B13:F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2060,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2003,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B14:F14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D819826-0E41-444E-85CC-5113AD7B4B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CE58D-EFCE-4C47-AC59-CD90A508527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="GRA-carbontax" sheetId="8" r:id="rId3"/>
     <sheet name="GRA-fueltax" sheetId="9" r:id="rId4"/>
     <sheet name="GRA-evsubsidy" sheetId="10" r:id="rId5"/>
-    <sheet name="GRA-vehbatsubsidy" sheetId="18" r:id="rId6"/>
+    <sheet name="GRA-batconsubsidy" sheetId="18" r:id="rId6"/>
     <sheet name="GRA-elecgensubsidy" sheetId="11" r:id="rId7"/>
     <sheet name="GRA-eleccapconstsubsidy" sheetId="12" r:id="rId8"/>
     <sheet name="GRA-distsolarsubsidy" sheetId="13" r:id="rId9"/>
@@ -407,9 +407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -447,7 +447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -553,7 +553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -695,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,17 +715,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="80.85546875" customWidth="1"/>
+    <col min="2" max="2" width="80.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,72 +733,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -830,7 +830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -838,114 +838,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -967,12 +967,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -980,7 +980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -997,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1037,12 +1037,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1105,12 +1105,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1173,12 +1173,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1243,33 +1243,33 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1489,12 +1489,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1757,12 +1757,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1827,12 +1827,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1895,12 +1895,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1962,15 +1962,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2033,12 +2033,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2101,12 +2101,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2169,12 +2169,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7CE58D-EFCE-4C47-AC59-CD90A508527F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B31A74-FEF5-46AA-8455-B6AF2D8FAC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -47,26 +47,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
-  </authors>
-  <commentList>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>GRA Government Revenue Accounting</t>
   </si>
@@ -249,15 +231,6 @@
   </si>
   <si>
     <t>lever.</t>
-  </si>
-  <si>
-    <t>It is recommended that you avoid using the "deficit spending" mechanism to handle "national debt</t>
-  </si>
-  <si>
-    <t>interest" to avoid creating a feedback loop where deficit spending increases debt, which increases</t>
-  </si>
-  <si>
-    <t>interest, which further increases debt, etc.</t>
   </si>
   <si>
     <t>Corporate Taxes</t>
@@ -311,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,12 +312,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +348,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,9 +368,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jeffrey Rissman" id="{B752AA03-E7FD-47E9-A7F9-587DA10781FB}" userId="S::jeff@energyinnovation.onmicrosoft.com::f3f117cb-d7f5-455c-900f-329d977050a0" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,31 +666,25 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C15" dT="2020-08-18T18:45:50.17" personId="{B752AA03-E7FD-47E9-A7F9-587DA10781FB}" id="{4F81BCB5-E56D-426A-91DB-BCF0877CB817}">
-    <text>It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.81640625" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -733,72 +692,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -806,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -814,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -822,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -830,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -838,116 +797,101 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -967,12 +911,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -980,7 +924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -989,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -997,7 +941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1005,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1013,9 +957,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1037,12 +981,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1050,7 +994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1059,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1067,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1075,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1083,9 +1027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1105,12 +1049,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1118,32 +1062,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
         <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B15:F15)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1151,9 +1095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1173,12 +1117,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1186,16 +1130,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
       <c r="B2">
         <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B16:F16)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1203,15 +1147,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1219,9 +1163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1233,43 +1177,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1279,7 +1223,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1296,10 +1240,10 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1319,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1336,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1359,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1379,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1399,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1419,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1439,18 +1383,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15" s="14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1459,18 +1403,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1479,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1489,12 +1433,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1511,10 +1455,10 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1539,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1549,7 +1493,7 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="1"/>
@@ -1561,10 +1505,10 @@
       </c>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1589,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1639,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1664,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1689,21 +1633,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="10">
         <f t="shared" ref="B29:F29" si="7">IFERROR(B15/SUM($B15:$F15),1/COUNT($B15:$F15))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="10">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="10">
         <f t="shared" si="7"/>
@@ -1714,21 +1658,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="10">
         <f t="shared" ref="B30:F30" si="8">IFERROR(B16/SUM($B16:$F16),1/COUNT($B16:$F16))</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
         <f t="shared" si="8"/>
@@ -1742,7 +1686,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1754,15 +1697,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1779,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1787,7 +1730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1795,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1803,9 +1746,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1824,15 +1767,15 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1840,7 +1783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1849,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1857,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1865,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1873,12 +1816,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1895,12 +1838,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1908,7 +1851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1917,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1933,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1941,9 +1884,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1965,12 +1908,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1978,7 +1921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1987,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1995,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2011,9 +1954,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2033,12 +1976,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2046,7 +1989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2055,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2063,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2071,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2079,9 +2022,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2101,12 +2044,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2114,7 +2057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2123,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2139,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2147,9 +2090,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2169,12 +2112,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2182,7 +2125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2191,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2199,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2207,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2215,9 +2158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>0</v>
